--- a/LIngenieurCostumierUnity/Assets/StreamingAssets/testExcel.xlsx
+++ b/LIngenieurCostumierUnity/Assets/StreamingAssets/testExcel.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -266,7 +266,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1"/>
     </row>

--- a/LIngenieurCostumierUnity/Assets/StreamingAssets/testExcel.xlsx
+++ b/LIngenieurCostumierUnity/Assets/StreamingAssets/testExcel.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">jambes</t>
   </si>
   <si>
-    <t xml:space="preserve">Avant-bras</t>
+    <t xml:space="preserve">avant-bras</t>
   </si>
   <si>
     <t xml:space="preserve">bras</t>
@@ -247,7 +247,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,7 +302,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/LIngenieurCostumierUnity/Assets/StreamingAssets/testExcel.xlsx
+++ b/LIngenieurCostumierUnity/Assets/StreamingAssets/testExcel.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,7 +302,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/LIngenieurCostumierUnity/Assets/StreamingAssets/testExcel.xlsx
+++ b/LIngenieurCostumierUnity/Assets/StreamingAssets/testExcel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">hanches</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">tete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epaules</t>
   </si>
 </sst>
 </file>
@@ -244,10 +247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,6 +306,14 @@
       </c>
       <c r="B6" s="1" t="n">
         <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
